--- a/trunk/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/trunk/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\PRO3\trunk\Documentation\ProjectDocumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="19320" windowHeight="14520"/>
+    <workbookView xWindow="480" yWindow="20" windowWidth="19320" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -78,9 +83,6 @@
     <t>Freigabe</t>
   </si>
   <si>
-    <t>Martina Musterfrau, Max Mustermann</t>
-  </si>
-  <si>
     <t>FH-Studenten</t>
   </si>
   <si>
@@ -96,24 +98,12 @@
     <t>Vollständiger Titel und Name des Projektbetreuers</t>
   </si>
   <si>
-    <t>Musterfirma</t>
-  </si>
-  <si>
     <t>Hier soll eine Kurzbeschreibung des Projekts eingefügt werden. Dieser Kurztext wird neben dem Logo des Projekts (1. Bild) auf der Projektübersichtsseite zu lesen sein. Die Länge sollte ca. 2-3 Sätze betragen.</t>
   </si>
   <si>
-    <t>Mustertitel</t>
-  </si>
-  <si>
-    <t>DI Dr. Max Mustermann, BSc, MSc</t>
-  </si>
-  <si>
     <t>Liste der Namen der Studierenden, die an diesem Projekt mitarbeiten, mit Komma getrennt.</t>
   </si>
   <si>
-    <t>Bild1.jpg,Bild2.png,Bild3.gif</t>
-  </si>
-  <si>
     <t>Ausfüllhinweise: Für 1 Projekt muss jeweils 1 Zeile ausgefüllt werden. Zu verwenden ist die obige Zeile mit den Musterdaten. Die ausgeblendeten Spalten sollen nicht eingeblendet werden.</t>
   </si>
   <si>
@@ -132,24 +122,44 @@
     <t>Bei Unklarheiten können die aktuellen Projektbeschreibungen auf der Website als Referenz herangezogen werden. Bei konkreten Fragen ist Kontakt mit Stephan Drab aufzunehmen.</t>
   </si>
   <si>
-    <t>Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.
-Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.</t>
-  </si>
-  <si>
-    <t>Dies ist eine Musterkurzbeschreibung. Dies ist eine Musterkurzbeschreibung.</t>
-  </si>
-  <si>
-    <t>Sommersemester 2009</t>
-  </si>
-  <si>
     <t>abgeschlossen</t>
+  </si>
+  <si>
+    <t>Sommersemester 2017</t>
+  </si>
+  <si>
+    <t>Anna Hausberger</t>
+  </si>
+  <si>
+    <t>FH-Prof. DI Dr. Gerald Ostermayer</t>
+  </si>
+  <si>
+    <t>FH Hagenberg</t>
+  </si>
+  <si>
+    <t>Energieverbrauchsmodelle für Fahrzeuge</t>
+  </si>
+  <si>
+    <t>Dieses Projekt beschäftigt sich mit den verschiedenen Energieverbrauchsmodellen für Personenfahrzeuge. Das Ziel dieses Projektes ist es das bereits integrierte Energieverbrauchsmodell in der Software „TraffSim“ zu evaluieren und um die fehlenden Aspekte zu erweitern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Verkehrssimulation - Tool „TraffSim“ hatte bereits ein Modell für die Berechnung des Energieverbrauches implementiert. Dieses Modell ist jedoch nur auf konventionell angetriebene Fahrzeuge anwendbar. Es wird mithilfe der aktuellen Geschwindigkeit, Beschleunigung, des Winkels der Grundfläche und dem Gearindex der momentane Energieverbrauch berechnet.
+Im Laufe dieses Projektes wurde die Software „TraffSim“ um die Energieverbrauchsmodelle für elektrisch angetriebene und Hybridfahrzeuge erweitert.
+Dabei wurde nicht nur ein Modell für den Energieverbrauch von den eben genannten Fahrzeugen erstellt, sondern musste auch ein Modell für die Batterie und für den elektrischen Motor erstellt werden.
+Das Energieverbrauchsmodell für elektrisch angetriebene Fahrzeuge berechnet mithilfe dem Modell des Fahrzeuges und dem Modell des elektrischen Motors mit dem Parametern der momentanen Geschwindigkeit, Beschleunigung und Steigung der Grundfläche den momentanen Energieverbrauch.
+Nach der Berechnung des Energieverbrauchs wird der Verbrauch aktiv von der Batterie abgezogen oder durch Rekuperation hinzugefügt, da auch der Energieverbrauch sehr stark vom aktuellen Zustand der Batterie abhängig ist.
+Das Energieverbrauchsmodell für Hybridfahrzeuge verwendet die Modelle für elektrisch und konventionell angetriebene Fahrzeuge, um den Energieverbrauch zu berechnen. Je nach Art des Hybridfahrzeuges wird ein unterschiedlicher Prozentsatz der benötigten Power vom elektrischen Motor oder vom anderen Motor übernommen.
+</t>
+  </si>
+  <si>
+    <t>Energieverbrauchsmodelle_01_Blockdiagramm.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -269,9 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -296,17 +303,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -348,7 +367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +399,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +451,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,38 +644,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="39.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.453125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="39.26953125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.7265625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.54296875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.26953125" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1">
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -682,21 +737,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>39</v>
@@ -705,208 +760,208 @@
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="T2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1"/>
-    <row r="4" spans="1:20" s="6" customFormat="1"/>
-    <row r="5" spans="1:20" s="6" customFormat="1"/>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:20" ht="52.5" customHeight="1">
+    <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:20" ht="27.75" customHeight="1">
+    <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="39" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
     </row>
   </sheetData>
   <sheetProtection password="E579" sheet="1" selectLockedCells="1"/>
@@ -929,12 +984,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -943,12 +998,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
